--- a/Handedness_original.xlsx
+++ b/Handedness_original.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achi5\Dropbox\Papers - Sala - Gobet\Handedness\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DCD2122-3DEE-4E13-8409-98D48B32756E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA105F6-B948-4CAD-A60A-C3006D7AFB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1644" yWindow="1536" windowWidth="21396" windowHeight="10824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1644" yWindow="1536" windowWidth="21396" windowHeight="10824" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EXP1" sheetId="1" r:id="rId1"/>
@@ -869,7 +869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E414"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -7922,8 +7922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7947,7 +7947,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>-1</v>
@@ -7964,7 +7964,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -7981,7 +7981,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -7998,7 +7998,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -8015,7 +8015,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>0.8</v>
@@ -8032,7 +8032,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -8049,7 +8049,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -8066,7 +8066,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>0.8</v>
@@ -8083,7 +8083,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -8100,7 +8100,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11">
         <v>-1</v>
@@ -8117,7 +8117,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12">
         <v>0.2</v>
@@ -8134,7 +8134,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -8151,7 +8151,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14">
         <v>0.2</v>
@@ -8168,7 +8168,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15">
         <v>-0.7</v>
@@ -8185,7 +8185,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16">
         <v>0.9</v>
@@ -8202,7 +8202,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17">
         <v>0.89</v>
@@ -8219,7 +8219,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18">
         <v>0.9</v>
@@ -8236,7 +8236,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19">
         <v>0.8</v>
@@ -8253,7 +8253,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -8270,7 +8270,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21">
         <v>0.8</v>
@@ -8287,7 +8287,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22">
         <v>0.57999999999999996</v>
@@ -8304,7 +8304,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23">
         <v>0.5</v>
@@ -8321,7 +8321,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24">
         <v>-0.79</v>
@@ -8338,7 +8338,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25">
         <v>0.79</v>
@@ -8355,7 +8355,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -8372,7 +8372,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -8389,7 +8389,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28">
         <v>0.3</v>
@@ -8406,7 +8406,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -8423,7 +8423,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30">
         <v>0.79</v>
@@ -8440,7 +8440,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31">
         <v>0.8</v>
@@ -8457,7 +8457,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B32">
         <v>0.56000000000000005</v>
@@ -8474,7 +8474,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33">
         <v>0.68</v>
@@ -8491,7 +8491,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -8508,7 +8508,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -8525,7 +8525,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36">
         <v>0.65</v>
@@ -8542,7 +8542,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37">
         <v>0.9</v>
@@ -8559,7 +8559,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B38">
         <v>-0.9</v>
@@ -8576,7 +8576,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39">
         <v>0.9</v>
@@ -8593,7 +8593,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B40">
         <v>0.8</v>
@@ -8610,7 +8610,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B41">
         <v>0.7</v>
@@ -8627,7 +8627,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -8644,7 +8644,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -8661,7 +8661,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44">
         <v>0.6</v>
@@ -8678,7 +8678,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -8695,7 +8695,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B46">
         <v>0.6</v>
@@ -8712,7 +8712,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -8729,7 +8729,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -8746,7 +8746,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B49">
         <v>0.38</v>
@@ -8763,7 +8763,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -8780,7 +8780,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B51">
         <v>-1</v>
@@ -8797,7 +8797,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B52">
         <v>0.9</v>
@@ -8814,7 +8814,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -8831,7 +8831,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -8848,7 +8848,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B55">
         <v>0.76</v>
@@ -8865,7 +8865,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -8882,7 +8882,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B57">
         <v>-0.7</v>
@@ -8899,7 +8899,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -8916,7 +8916,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -8933,7 +8933,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B60">
         <v>0.7</v>
@@ -8950,7 +8950,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B61">
         <v>0.8</v>
@@ -8967,7 +8967,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -8984,7 +8984,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B63">
         <v>-0.5</v>
@@ -9001,7 +9001,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B64">
         <v>0.37</v>
@@ -9018,7 +9018,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -9035,7 +9035,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -9052,7 +9052,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -9069,7 +9069,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -9086,7 +9086,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B69">
         <v>0.9</v>
@@ -9103,7 +9103,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -9120,7 +9120,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -9137,7 +9137,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -9154,7 +9154,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -9171,7 +9171,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -9188,7 +9188,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B75">
         <v>-1</v>
@@ -9205,7 +9205,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B76">
         <v>0.5</v>
@@ -9222,7 +9222,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -9239,7 +9239,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -9256,7 +9256,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -9273,7 +9273,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B80">
         <v>0.65</v>
@@ -9290,7 +9290,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -9307,7 +9307,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B82">
         <v>0.79</v>
@@ -9324,7 +9324,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B83">
         <v>0.7</v>
@@ -9341,7 +9341,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B84">
         <v>0.9</v>
@@ -9358,7 +9358,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -9375,7 +9375,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -9392,7 +9392,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B87">
         <v>-0.9</v>
@@ -9409,7 +9409,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B88">
         <v>0.8</v>
@@ -9426,7 +9426,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B89">
         <v>0.9</v>
@@ -9443,7 +9443,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B90">
         <v>-1</v>
@@ -9460,7 +9460,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -9477,7 +9477,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B92">
         <v>0.33</v>
@@ -9494,7 +9494,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B93">
         <v>-0.1</v>
@@ -9511,7 +9511,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B94">
         <v>0.7</v>
@@ -9528,7 +9528,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B95">
         <v>0.56000000000000005</v>
@@ -9545,7 +9545,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B96">
         <v>-1</v>
@@ -9562,7 +9562,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -9579,7 +9579,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -9596,7 +9596,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B99">
         <v>-0.65</v>
@@ -9613,7 +9613,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -9630,7 +9630,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B101">
         <v>0.9</v>
@@ -9647,7 +9647,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B102">
         <v>0.63</v>
@@ -9664,7 +9664,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -9681,7 +9681,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -9698,7 +9698,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B105">
         <v>0.89</v>
@@ -9715,7 +9715,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -9732,7 +9732,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -9749,7 +9749,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -9766,7 +9766,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B109">
         <v>0.76</v>
@@ -9783,7 +9783,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B110">
         <v>0.6</v>
@@ -9800,7 +9800,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B111">
         <v>0.78</v>
@@ -9817,7 +9817,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B112">
         <v>0.6</v>
@@ -9834,7 +9834,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B113">
         <v>0.7</v>
@@ -9851,7 +9851,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B114">
         <v>0.8</v>
@@ -9868,7 +9868,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B115">
         <v>0.3</v>
@@ -9885,7 +9885,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B116">
         <v>0.8</v>
@@ -9902,7 +9902,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B117">
         <v>0.9</v>
@@ -9919,7 +9919,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B118">
         <v>0.5</v>
@@ -9936,7 +9936,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B119">
         <v>0.44</v>
@@ -9953,7 +9953,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B120">
         <v>-0.6</v>
@@ -9970,7 +9970,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -9987,7 +9987,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B122">
         <v>0.68</v>
@@ -10004,7 +10004,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B123">
         <v>0.47</v>
@@ -10021,7 +10021,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -10038,7 +10038,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -10055,7 +10055,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B126">
         <v>0.6</v>
@@ -10072,7 +10072,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B127">
         <v>0.89</v>
@@ -10089,7 +10089,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B128">
         <v>-1</v>
@@ -10106,7 +10106,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B129">
         <v>0.7</v>
@@ -10123,7 +10123,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B130">
         <v>0.11</v>
@@ -10140,7 +10140,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B131">
         <v>0.41</v>
@@ -10157,7 +10157,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B132">
         <v>0.7</v>
@@ -10174,7 +10174,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -10191,7 +10191,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -10208,7 +10208,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B135">
         <v>-0.18</v>
@@ -10225,7 +10225,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -10242,7 +10242,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B137">
         <v>0.18</v>
@@ -10259,7 +10259,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -10276,7 +10276,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B139">
         <v>0.56000000000000005</v>
@@ -10293,7 +10293,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B140">
         <v>-0.53</v>
@@ -10310,7 +10310,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B141">
         <v>0.9</v>
@@ -10327,7 +10327,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B142">
         <v>0.8</v>
@@ -10344,7 +10344,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B143">
         <v>0.76</v>
@@ -10361,7 +10361,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B144">
         <v>0.9</v>
@@ -10378,7 +10378,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B145">
         <v>-0.9</v>
@@ -10395,7 +10395,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -10412,7 +10412,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B147">
         <v>0.9</v>
@@ -10429,7 +10429,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B148">
         <v>0.57999999999999996</v>
@@ -10446,7 +10446,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B149">
         <v>0.3</v>
@@ -10463,7 +10463,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B150">
         <v>0.6</v>
@@ -10480,7 +10480,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -10497,7 +10497,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B152">
         <v>0.89</v>
@@ -10514,7 +10514,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B153">
         <v>-0.7</v>
@@ -10531,7 +10531,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B154">
         <v>0.9</v>
@@ -10548,7 +10548,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B155">
         <v>0.22</v>
@@ -10565,7 +10565,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -10582,7 +10582,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B157">
         <v>-0.9</v>
@@ -10599,7 +10599,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -10616,7 +10616,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -10633,7 +10633,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -10650,7 +10650,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B161">
         <v>0.7</v>
@@ -10667,7 +10667,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -10684,7 +10684,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B163">
         <v>0.8</v>
@@ -10701,7 +10701,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -10718,7 +10718,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B165">
         <v>0.67</v>
@@ -10735,7 +10735,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B166">
         <v>-0.3</v>
@@ -10752,7 +10752,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B167">
         <v>0.65</v>
@@ -10769,7 +10769,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -10786,7 +10786,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B169">
         <v>0.7</v>
@@ -10803,7 +10803,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B170">
         <v>0.47</v>
@@ -10820,7 +10820,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -10837,7 +10837,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -10854,7 +10854,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B173">
         <v>0.68</v>
@@ -10871,7 +10871,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -10888,7 +10888,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B175">
         <v>-0.33</v>
@@ -10905,7 +10905,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B176">
         <v>0.7</v>
@@ -10922,7 +10922,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B177">
         <v>-0.56000000000000005</v>
@@ -10939,7 +10939,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -10956,7 +10956,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B179">
         <v>0.8</v>
@@ -10973,7 +10973,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B180">
         <v>0.33</v>
@@ -10990,7 +10990,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B181">
         <v>0.7</v>
@@ -11007,7 +11007,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B182">
         <v>0.7</v>
@@ -11024,7 +11024,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B183">
         <v>0.13</v>
@@ -11041,7 +11041,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B184">
         <v>0.06</v>
@@ -11058,7 +11058,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B185">
         <v>0.7</v>
@@ -11075,7 +11075,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B186">
         <v>0.41</v>
@@ -11092,7 +11092,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B187">
         <v>0.6</v>
@@ -11109,7 +11109,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B188">
         <v>0.4</v>
@@ -11126,7 +11126,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B189">
         <v>-0.6</v>
@@ -11143,7 +11143,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B190">
         <v>0.9</v>
@@ -11160,7 +11160,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B191">
         <v>0.78</v>
@@ -11177,7 +11177,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -11194,7 +11194,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B193">
         <v>0.89</v>
@@ -11211,7 +11211,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B194">
         <v>0.8</v>
@@ -11228,7 +11228,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -11245,7 +11245,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -11262,7 +11262,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B197">
         <v>0.57999999999999996</v>
@@ -11279,7 +11279,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B198">
         <v>0.79</v>
@@ -11296,7 +11296,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -11313,7 +11313,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B200">
         <v>0.8</v>
@@ -11330,7 +11330,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -11347,7 +11347,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B202">
         <v>0.26</v>
@@ -11364,7 +11364,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B203">
         <v>0.9</v>
@@ -11381,7 +11381,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B204">
         <v>0.16</v>
@@ -11398,7 +11398,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B205">
         <v>0.7</v>
@@ -11415,7 +11415,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -11432,7 +11432,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B207">
         <v>0.6</v>
@@ -11449,7 +11449,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B208">
         <v>0.9</v>
@@ -11466,7 +11466,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B209">
         <v>0.79</v>
@@ -11483,7 +11483,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B210">
         <v>0.67</v>
@@ -11500,7 +11500,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B211">
         <v>0.89</v>
@@ -11517,7 +11517,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B212">
         <v>0.65</v>
@@ -11534,7 +11534,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B213">
         <v>0.2</v>
@@ -11551,7 +11551,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B214">
         <v>1</v>
@@ -11568,7 +11568,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B215">
         <v>0.89</v>
@@ -11585,7 +11585,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B216">
         <v>0.78</v>
@@ -11602,7 +11602,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B217">
         <v>0.57999999999999996</v>
@@ -11619,7 +11619,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B218">
         <v>0</v>
@@ -11636,7 +11636,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B219">
         <v>0.7</v>
@@ -11653,7 +11653,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B220">
         <v>0.9</v>
@@ -11670,7 +11670,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B221">
         <v>-0.5</v>
@@ -11687,7 +11687,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B222">
         <v>-0.44</v>
@@ -11704,7 +11704,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -11721,7 +11721,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -11738,7 +11738,7 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B225">
         <v>-0.47</v>
@@ -11755,7 +11755,7 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B226">
         <v>0.9</v>
@@ -11772,7 +11772,7 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B227">
         <v>0.9</v>
@@ -11789,7 +11789,7 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B228">
         <v>0.68</v>
@@ -11806,7 +11806,7 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B229">
         <v>0.8</v>
@@ -11823,7 +11823,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -11840,7 +11840,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B231">
         <v>-0.2</v>
@@ -11857,7 +11857,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B232">
         <v>0.8</v>
@@ -11874,7 +11874,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B233">
         <v>0.7</v>
@@ -11891,7 +11891,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B234">
         <v>0.6</v>
@@ -11908,7 +11908,7 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B235">
         <v>0.37</v>
@@ -11925,7 +11925,7 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B236">
         <v>0.67</v>
@@ -11942,7 +11942,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B237">
         <v>0.68</v>
@@ -11959,7 +11959,7 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B238">
         <v>0.6</v>
@@ -11976,7 +11976,7 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -11993,7 +11993,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B240">
         <v>0.65</v>
@@ -12010,7 +12010,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B241">
         <v>0.67</v>
@@ -12027,7 +12027,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -12044,7 +12044,7 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -12061,7 +12061,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B244">
         <v>1</v>
@@ -12078,7 +12078,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B245">
         <v>0.41</v>
@@ -12095,7 +12095,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B246">
         <v>-0.6</v>
@@ -12112,7 +12112,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -12129,7 +12129,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B248">
         <v>0.68</v>
@@ -12146,7 +12146,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B249">
         <v>0.67</v>
@@ -12163,7 +12163,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B250">
         <v>1</v>
@@ -12180,7 +12180,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B251">
         <v>1</v>
@@ -12197,7 +12197,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B252">
         <v>0.79</v>
@@ -12214,7 +12214,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B253">
         <v>0.57999999999999996</v>
@@ -12231,7 +12231,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B254">
         <v>0.67</v>
@@ -12248,7 +12248,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B255">
         <v>1</v>
@@ -12265,7 +12265,7 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B256">
         <v>1</v>
@@ -12282,7 +12282,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B257">
         <v>1</v>
@@ -12299,7 +12299,7 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B258">
         <v>0.4</v>
@@ -12316,7 +12316,7 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B259">
         <v>0.56000000000000005</v>
@@ -12333,7 +12333,7 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B260">
         <v>1</v>
@@ -12350,7 +12350,7 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B261">
         <v>-0.18</v>
@@ -12367,7 +12367,7 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B262">
         <v>0.89</v>
@@ -12384,7 +12384,7 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B263">
         <v>1</v>
@@ -12401,7 +12401,7 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B264">
         <v>0.9</v>
@@ -12418,7 +12418,7 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B265">
         <v>0.8</v>
@@ -12435,7 +12435,7 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B266">
         <v>-1</v>
@@ -12452,7 +12452,7 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -12469,7 +12469,7 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B268">
         <v>0.9</v>
@@ -12486,7 +12486,7 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B269">
         <v>0.8</v>
@@ -12503,7 +12503,7 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B270">
         <v>0.7</v>
@@ -12520,7 +12520,7 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B271">
         <v>0.9</v>
@@ -12537,7 +12537,7 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B272">
         <v>0.75</v>
@@ -12554,7 +12554,7 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B273">
         <v>-0.6</v>
@@ -12571,7 +12571,7 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -12588,7 +12588,7 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B275">
         <v>0.78</v>
@@ -12605,7 +12605,7 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B276">
         <v>0.7</v>
@@ -12622,7 +12622,7 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B277">
         <v>1</v>
@@ -12639,7 +12639,7 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B278">
         <v>0.9</v>
@@ -12656,7 +12656,7 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B279">
         <v>1</v>
@@ -12673,7 +12673,7 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B280">
         <v>0.9</v>
@@ -12690,7 +12690,7 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B281">
         <v>0.25</v>
@@ -12707,7 +12707,7 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -12724,7 +12724,7 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B283">
         <v>-0.05</v>
@@ -12741,7 +12741,7 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B284">
         <v>0.8</v>
@@ -12758,7 +12758,7 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B285">
         <v>0.9</v>
@@ -12775,7 +12775,7 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B286">
         <v>0.41</v>
@@ -12792,7 +12792,7 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B287">
         <v>1</v>
@@ -12809,7 +12809,7 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -12826,7 +12826,7 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -12843,7 +12843,7 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B290">
         <v>0.68</v>
@@ -12860,7 +12860,7 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -12877,7 +12877,7 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B292">
         <v>0.78</v>
@@ -12894,7 +12894,7 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B293">
         <v>0.57999999999999996</v>
@@ -12911,7 +12911,7 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B294">
         <v>-0.47</v>
@@ -12928,7 +12928,7 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B295">
         <v>-0.65</v>
@@ -12945,7 +12945,7 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B296">
         <v>0.8</v>
@@ -12962,7 +12962,7 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B297">
         <v>0.6</v>
@@ -12979,7 +12979,7 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B298">
         <v>-0.6</v>
@@ -12996,7 +12996,7 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B299">
         <v>0.78</v>
@@ -13013,7 +13013,7 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B300">
         <v>0.6</v>
@@ -13030,7 +13030,7 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B301">
         <v>0.8</v>
@@ -13046,9 +13046,6 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E301">
-    <sortCondition ref="A2:A301"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
